--- a/Banco Central/5/6/7/Depósito de liquidez por plazo 2021 - Diaria.xlsx
+++ b/Banco Central/5/6/7/Depósito de liquidez por plazo 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Serie</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,6 +488,22 @@
         <v>7552500</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2638200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>1535500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
